--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Daria\Facultate\Semestrul 6\VVSS\vvss-inventory\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D6B3E0-55D2-4FE4-B6DD-343C0CB07FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F700C25C-7B30-4C0C-A954-4A53A383A6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -160,24 +160,15 @@
     <t>C01</t>
   </si>
   <si>
-    <t>Inventory - lookupProduct</t>
-  </si>
-  <si>
     <t>boolean variable isFound is redundant</t>
   </si>
   <si>
-    <t>ModifyProductControllet - handleDeleteProduct</t>
-  </si>
-  <si>
     <t>missing check if optional variable is present</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>Product - setAsscoiatedParts</t>
-  </si>
-  <si>
     <t>name conflict between parameter associatedParts and member of Product class</t>
   </si>
   <si>
@@ -266,6 +257,15 @@
   </si>
   <si>
     <t>Manu Daria, Maga Paul</t>
+  </si>
+  <si>
+    <t>Inventory - lookupProduct / line 45</t>
+  </si>
+  <si>
+    <t>ModifyProductControllet - handleDeleteProduct / line 180</t>
+  </si>
+  <si>
+    <t>Product - setAsscoiatedParts / line 62</t>
   </si>
 </sst>
 </file>
@@ -490,6 +490,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -531,10 +535,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,19 +900,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -936,10 +936,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -954,10 +954,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -969,19 +969,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="25"/>
+      <c r="D6" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="26">
         <v>44992</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1188,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
@@ -1208,19 +1208,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1244,10 +1244,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1262,10 +1262,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1277,19 +1277,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="25"/>
+      <c r="D6" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="26">
         <v>44992</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1310,13 +1310,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1340,11 +1340,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1503,8 +1503,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1524,19 +1524,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1560,10 +1560,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="36"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1578,10 +1578,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="38"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1593,19 +1593,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="25"/>
+      <c r="D6" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="26">
         <v>44992</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1629,10 +1629,10 @@
         <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1644,10 +1644,10 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1656,13 +1656,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1857,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
@@ -1879,19 +1879,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1915,10 +1915,10 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="34"/>
+      <c r="D4" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="36"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1933,10 +1933,10 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="25"/>
+      <c r="D5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="27"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1948,10 +1948,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="26">
         <v>44992</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1976,16 +1976,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1994,16 +1994,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>64</v>
+      <c r="E11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2012,16 +2012,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2030,16 +2030,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2048,16 +2048,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2221,13 +2221,13 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
+      <c r="C32" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
